--- a/Sis2/resources/excelTest.xlsx
+++ b/Sis2/resources/excelTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t xml:space="preserve">NIF/NIE</t>
   </si>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">DK</t>
   </si>
   <si>
-    <t xml:space="preserve">09611071S</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aller</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71404629R</t>
   </si>
 </sst>
 </file>
@@ -228,6 +228,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -257,6 +258,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,17 +341,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="24.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,20 +501,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>34</v>
@@ -524,7 +523,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>25</v>
@@ -532,51 +531,51 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>23</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>26</v>
@@ -585,31 +584,31 @@
         <v>27</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>26</v>
@@ -631,9 +630,41 @@
         <v>24</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="B9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
